--- a/NEW HR/DONE/ESPINELI, LORETA.xlsx
+++ b/NEW HR/DONE/ESPINELI, LORETA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE2CE7-84EA-46E8-80D8-AD1AF6F2D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -278,11 +279,17 @@
   <si>
     <t>5/16-19,22-26,29-31/2023</t>
   </si>
+  <si>
+    <t>VL(11-0-0)</t>
+  </si>
+  <si>
+    <t>7/17-31/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -671,15 +678,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -692,11 +690,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,7 +1400,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1443,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1507,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1567,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1633,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1696,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1794,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1853,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1918,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1961,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2036,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2222,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2288,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2346,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2412,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2468,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2543,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2586,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2652,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2708,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2806,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2869,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2918,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2928,25 +2935,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2958,25 +2965,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2988,13 +2995,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3003,14 +3010,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3314,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3324,7 +3331,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3332,34 +3339,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3371,16 +3378,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3389,16 +3396,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3409,16 +3416,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3426,7 +3433,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3439,24 +3446,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3500,7 +3507,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3510,12 +3517,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3537,7 +3544,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3561,7 +3568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3605,7 +3612,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3625,7 +3632,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3645,7 +3652,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3665,7 +3672,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3685,7 +3692,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3705,7 +3712,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3751,7 +3758,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3797,7 +3804,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3817,7 +3824,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3835,7 +3842,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3855,7 +3862,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3875,7 +3882,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3895,7 +3902,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3915,7 +3922,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3935,7 +3942,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3955,7 +3962,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3975,7 +3982,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3995,7 +4002,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4015,7 +4022,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4035,7 +4042,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4081,7 +4088,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
@@ -4099,7 +4106,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4119,7 +4126,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -4139,7 +4146,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4159,7 +4166,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4179,7 +4186,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4199,7 +4206,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4219,7 +4226,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4245,7 +4252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4265,7 +4272,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4309,7 +4316,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4329,7 +4336,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4349,7 +4356,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>45</v>
       </c>
@@ -4367,7 +4374,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4387,7 +4394,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4407,7 +4414,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4427,7 +4434,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4467,7 +4474,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4487,7 +4494,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4507,7 +4514,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4527,7 +4534,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4547,7 +4554,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4567,7 +4574,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4587,7 +4594,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4611,7 +4618,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>46</v>
       </c>
@@ -4629,7 +4636,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4649,7 +4656,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4669,7 +4676,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4689,7 +4696,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4709,7 +4716,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4729,7 +4736,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4749,7 +4756,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4769,7 +4776,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4789,7 +4796,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4809,7 +4816,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4829,7 +4836,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4855,7 +4862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4875,7 +4882,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>47</v>
       </c>
@@ -4893,7 +4900,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4913,7 +4920,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
@@ -4953,7 +4960,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -4973,25 +4980,27 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5007,7 +5016,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5023,7 +5032,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5039,7 +5048,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5055,7 +5064,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5071,7 +5080,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5087,7 +5096,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5103,7 +5112,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5119,7 +5128,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5135,7 +5144,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5151,7 +5160,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5167,7 +5176,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5183,7 +5192,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5199,7 +5208,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5215,7 +5224,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5231,7 +5240,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5247,7 +5256,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5263,7 +5272,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5279,7 +5288,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5295,7 +5304,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5311,7 +5320,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5327,7 +5336,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5343,7 +5352,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5359,7 +5368,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5375,7 +5384,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5391,7 +5400,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5407,7 +5416,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5423,7 +5432,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5439,7 +5448,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5455,7 +5464,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5471,7 +5480,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5487,7 +5496,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5503,7 +5512,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5519,7 +5528,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5535,7 +5544,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5551,7 +5560,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5567,7 +5576,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5583,7 +5592,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5599,7 +5608,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5615,7 +5624,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5631,7 +5640,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5647,7 +5656,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5663,7 +5672,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5679,7 +5688,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5695,7 +5704,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5711,7 +5720,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5727,7 +5736,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5743,7 +5752,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5759,7 +5768,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5775,7 +5784,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5791,7 +5800,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5807,7 +5816,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5823,7 +5832,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5839,7 +5848,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -5857,23 +5866,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5896,34 +5905,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A17" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A29" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5936,16 +5945,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5957,19 +5966,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5981,19 +5990,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6001,7 +6010,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6014,24 +6023,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6075,7 +6084,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>137.44</v>
+        <v>126.44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6090,7 +6099,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6112,7 +6121,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6136,7 +6145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43252</v>
       </c>
@@ -6160,7 +6169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -6184,7 +6193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>53</v>
@@ -6206,7 +6215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -6228,7 +6237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6270,7 +6279,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43586</v>
       </c>
@@ -6294,7 +6303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43647</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>70</v>
@@ -6340,7 +6349,7 @@
         <v>43674</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43678</v>
       </c>
@@ -6364,7 +6373,7 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43739</v>
       </c>
@@ -6388,7 +6397,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>70</v>
@@ -6410,7 +6419,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>44</v>
       </c>
@@ -6428,7 +6437,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>45</v>
       </c>
@@ -6470,7 +6479,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44197</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>47</v>
       </c>
@@ -6512,7 +6521,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45017</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>78</v>
@@ -6558,11 +6567,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>45098</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>11</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6572,9 +6587,11 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6590,7 +6607,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6606,7 +6623,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6622,7 +6639,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6638,7 +6655,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6654,7 +6671,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6670,7 +6687,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6686,7 +6703,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6702,7 +6719,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6718,7 +6735,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6734,7 +6751,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6750,7 +6767,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6766,7 +6783,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6782,7 +6799,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6798,7 +6815,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6814,7 +6831,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6830,7 +6847,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6846,7 +6863,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6862,7 +6879,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6878,7 +6895,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6894,7 +6911,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6910,7 +6927,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6926,7 +6943,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6942,7 +6959,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6958,7 +6975,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6974,7 +6991,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6990,7 +7007,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7006,7 +7023,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7022,7 +7039,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7038,7 +7055,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7054,7 +7071,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7070,7 +7087,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7086,7 +7103,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7102,7 +7119,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7118,7 +7135,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7134,7 +7151,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7150,7 +7167,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7166,7 +7183,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7182,7 +7199,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7198,7 +7215,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7214,7 +7231,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7230,7 +7247,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7246,7 +7263,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7262,7 +7279,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7278,7 +7295,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7294,7 +7311,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7310,7 +7327,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7326,7 +7343,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7342,7 +7359,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7358,7 +7375,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7374,7 +7391,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7390,7 +7407,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7406,7 +7423,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7422,7 +7439,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7438,7 +7455,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7454,7 +7471,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7470,7 +7487,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7486,7 +7503,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7502,7 +7519,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7518,7 +7535,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7534,7 +7551,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7550,7 +7567,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7566,7 +7583,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7582,7 +7599,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7598,7 +7615,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7614,7 +7631,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7630,7 +7647,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7646,7 +7663,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7662,7 +7679,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7678,7 +7695,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7694,7 +7711,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7710,7 +7727,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7726,7 +7743,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7742,7 +7759,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7758,7 +7775,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7774,7 +7791,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7790,7 +7807,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7806,7 +7823,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7822,7 +7839,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7838,7 +7855,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7854,7 +7871,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7870,7 +7887,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7886,7 +7903,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7902,7 +7919,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7918,7 +7935,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7934,7 +7951,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7950,7 +7967,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7966,7 +7983,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7982,7 +7999,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7998,7 +8015,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8014,7 +8031,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8030,7 +8047,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8046,7 +8063,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8062,7 +8079,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8078,7 +8095,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8094,7 +8111,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8110,7 +8127,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8126,7 +8143,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8142,7 +8159,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8173,10 +8190,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8199,7 +8216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8207,21 +8224,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8234,7 +8251,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8263,7 +8280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>164.44</v>
       </c>
@@ -8287,17 +8304,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8318,7 +8335,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8345,7 +8362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8371,7 +8388,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8397,7 +8414,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8423,7 +8440,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8449,7 +8466,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8475,7 +8492,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8501,7 +8518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8527,7 +8544,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8547,7 +8564,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8567,7 +8584,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8587,7 +8604,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8608,7 +8625,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8629,7 +8646,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8650,7 +8667,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8671,7 +8688,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8692,7 +8709,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8713,7 +8730,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8734,7 +8751,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8755,7 +8772,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8776,7 +8793,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8797,7 +8814,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8818,7 +8835,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8839,7 +8856,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8860,7 +8877,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8881,7 +8898,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8902,7 +8919,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8923,7 +8940,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8944,7 +8961,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8965,7 +8982,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8986,7 +9003,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9007,7 +9024,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9016,7 +9033,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9025,7 +9042,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9034,7 +9051,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9043,7 +9060,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9052,7 +9069,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9061,7 +9078,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9070,7 +9087,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9079,7 +9096,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9088,7 +9105,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9097,7 +9114,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9106,7 +9123,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9115,7 +9132,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9124,7 +9141,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9133,7 +9150,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9142,7 +9159,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9151,7 +9168,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9160,7 +9177,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9169,7 +9186,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9178,7 +9195,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9187,7 +9204,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9196,7 +9213,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9205,7 +9222,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9214,7 +9231,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9223,7 +9240,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9232,7 +9249,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9241,7 +9258,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9250,7 +9267,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9259,7 +9276,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9268,7 +9285,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/ESPINELI, LORETA.xlsx
+++ b/NEW HR/DONE/ESPINELI, LORETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE2CE7-84EA-46E8-80D8-AD1AF6F2D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -285,11 +284,17 @@
   <si>
     <t>7/17-31/2023</t>
   </si>
+  <si>
+    <t>VL(22-0-0)</t>
+  </si>
+  <si>
+    <t>10/2-6,9-13,16-20,23-27,30,31/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -678,6 +683,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -690,20 +704,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,7 +1405,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1448,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1572,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1638,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1701,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1799,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1858,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1923,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1966,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2041,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2227,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2293,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2351,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2417,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2473,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2548,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2591,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2657,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2713,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2811,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2874,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2923,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2935,25 +2940,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2965,25 +2970,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2995,13 +3000,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3010,14 +3015,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3321,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3331,7 +3336,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3339,34 +3344,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A74" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C81"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3378,16 +3383,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3396,16 +3401,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3416,16 +3421,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3433,7 +3438,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3446,24 +3451,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3507,7 +3512,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3517,12 +3522,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3544,7 +3549,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3592,7 +3597,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3612,7 +3617,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3632,7 +3637,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3652,7 +3657,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3672,7 +3677,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3692,7 +3697,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3712,7 +3717,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3758,7 +3763,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3804,7 +3809,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3824,7 +3829,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3842,7 +3847,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3862,7 +3867,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3882,7 +3887,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3902,7 +3907,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3922,7 +3927,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3942,7 +3947,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3982,7 +3987,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -4002,7 +4007,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4022,7 +4027,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4042,7 +4047,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4088,7 +4093,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
@@ -4106,7 +4111,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4126,7 +4131,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -4146,7 +4151,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4166,7 +4171,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4186,7 +4191,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4206,7 +4211,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4226,7 +4231,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4272,7 +4277,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4316,7 +4321,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4336,7 +4341,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4356,7 +4361,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>45</v>
       </c>
@@ -4374,7 +4379,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4394,7 +4399,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4414,7 +4419,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4434,7 +4439,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4454,7 +4459,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4494,7 +4499,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4514,7 +4519,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4534,7 +4539,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4554,7 +4559,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4574,7 +4579,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4594,7 +4599,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4618,7 +4623,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>46</v>
       </c>
@@ -4636,7 +4641,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4656,7 +4661,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4676,7 +4681,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4696,7 +4701,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4716,7 +4721,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4736,7 +4741,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4756,7 +4761,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4776,7 +4781,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4796,7 +4801,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4816,7 +4821,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4836,7 +4841,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4882,7 +4887,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>47</v>
       </c>
@@ -4900,7 +4905,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4920,7 +4925,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -4940,7 +4945,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
@@ -4960,7 +4965,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -4980,7 +4985,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -5000,40 +5005,50 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>45078</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>45108</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>45139</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5048,8 +5063,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45170</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5064,7 +5081,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5080,7 +5097,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5096,7 +5113,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5112,7 +5129,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5128,7 +5145,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5144,7 +5161,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5160,7 +5177,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5176,7 +5193,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5192,7 +5209,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5208,7 +5225,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5224,7 +5241,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5240,7 +5257,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5256,7 +5273,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5272,7 +5289,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5288,7 +5305,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5304,7 +5321,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5320,7 +5337,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5336,7 +5353,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5352,7 +5369,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5368,7 +5385,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5384,7 +5401,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5400,7 +5417,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5416,7 +5433,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5432,7 +5449,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5448,7 +5465,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5464,7 +5481,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5480,7 +5497,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5496,7 +5513,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5512,7 +5529,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5528,7 +5545,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5544,7 +5561,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5560,7 +5577,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5576,7 +5593,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5592,7 +5609,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5608,7 +5625,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5624,7 +5641,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5640,7 +5657,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5656,7 +5673,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5672,7 +5689,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5688,7 +5705,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5704,7 +5721,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5720,7 +5737,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5736,7 +5753,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5752,7 +5769,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5768,7 +5785,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5784,7 +5801,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5800,7 +5817,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5816,7 +5833,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5832,7 +5849,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5848,7 +5865,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -5866,23 +5883,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5905,34 +5922,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A29" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5945,16 +5962,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5966,19 +5983,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5990,19 +6007,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6010,7 +6027,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6023,24 +6040,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6084,7 +6101,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.44</v>
+        <v>104.44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6099,7 +6116,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6121,7 +6138,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43252</v>
       </c>
@@ -6169,7 +6186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -6193,7 +6210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>53</v>
@@ -6215,7 +6232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -6237,7 +6254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
@@ -6261,7 +6278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6279,7 +6296,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43586</v>
       </c>
@@ -6303,7 +6320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43647</v>
       </c>
@@ -6327,7 +6344,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>70</v>
@@ -6349,7 +6366,7 @@
         <v>43674</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43678</v>
       </c>
@@ -6373,7 +6390,7 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43739</v>
       </c>
@@ -6397,7 +6414,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>70</v>
@@ -6419,7 +6436,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>44</v>
       </c>
@@ -6437,7 +6454,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -6461,7 +6478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>45</v>
       </c>
@@ -6479,7 +6496,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44197</v>
       </c>
@@ -6503,7 +6520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>47</v>
       </c>
@@ -6521,7 +6538,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45017</v>
       </c>
@@ -6545,7 +6562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>78</v>
@@ -6567,7 +6584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45098</v>
       </c>
@@ -6591,11 +6608,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>22</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
@@ -6605,9 +6628,11 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6623,7 +6648,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6639,7 +6664,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6655,7 +6680,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6671,7 +6696,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6687,7 +6712,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6703,7 +6728,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6719,7 +6744,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6735,7 +6760,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6751,7 +6776,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6767,7 +6792,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6783,7 +6808,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6799,7 +6824,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6815,7 +6840,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6831,7 +6856,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6847,7 +6872,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6863,7 +6888,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6879,7 +6904,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6895,7 +6920,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6911,7 +6936,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6927,7 +6952,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6943,7 +6968,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6959,7 +6984,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6975,7 +7000,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6991,7 +7016,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7007,7 +7032,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7023,7 +7048,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7039,7 +7064,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7055,7 +7080,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7071,7 +7096,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7087,7 +7112,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7103,7 +7128,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7119,7 +7144,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7135,7 +7160,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7151,7 +7176,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7167,7 +7192,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7183,7 +7208,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7199,7 +7224,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7215,7 +7240,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7231,7 +7256,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7247,7 +7272,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7263,7 +7288,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7279,7 +7304,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7295,7 +7320,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7311,7 +7336,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7327,7 +7352,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7343,7 +7368,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7359,7 +7384,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7375,7 +7400,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7391,7 +7416,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7407,7 +7432,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7423,7 +7448,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7439,7 +7464,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7455,7 +7480,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7471,7 +7496,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7487,7 +7512,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7503,7 +7528,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7519,7 +7544,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7535,7 +7560,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7551,7 +7576,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7567,7 +7592,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7583,7 +7608,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7599,7 +7624,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7615,7 +7640,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7631,7 +7656,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7647,7 +7672,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7663,7 +7688,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7679,7 +7704,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7695,7 +7720,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7711,7 +7736,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7727,7 +7752,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7743,7 +7768,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7759,7 +7784,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7775,7 +7800,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7791,7 +7816,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7807,7 +7832,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7823,7 +7848,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7839,7 +7864,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7855,7 +7880,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7871,7 +7896,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7887,7 +7912,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7903,7 +7928,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7919,7 +7944,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7935,7 +7960,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7951,7 +7976,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7967,7 +7992,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7983,7 +8008,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7999,7 +8024,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8015,7 +8040,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8031,7 +8056,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8047,7 +8072,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8063,7 +8088,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8079,7 +8104,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8095,7 +8120,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8111,7 +8136,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8127,7 +8152,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8143,7 +8168,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8159,7 +8184,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8190,10 +8215,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8216,7 +8241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8224,21 +8249,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8251,7 +8276,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8280,7 +8305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>164.44</v>
       </c>
@@ -8304,17 +8329,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8335,7 +8360,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8362,7 +8387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8388,7 +8413,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8414,7 +8439,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8440,7 +8465,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8466,7 +8491,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8492,7 +8517,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8518,7 +8543,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8544,7 +8569,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8564,7 +8589,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8584,7 +8609,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8604,7 +8629,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8646,7 +8671,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8667,7 +8692,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8688,7 +8713,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8709,7 +8734,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8730,7 +8755,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8751,7 +8776,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8772,7 +8797,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8793,7 +8818,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8814,7 +8839,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8835,7 +8860,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8856,7 +8881,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8877,7 +8902,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8898,7 +8923,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8919,7 +8944,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8940,7 +8965,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8961,7 +8986,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8982,7 +9007,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9003,7 +9028,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9024,7 +9049,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9033,7 +9058,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9042,7 +9067,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9051,7 +9076,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9060,7 +9085,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9069,7 +9094,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9078,7 +9103,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9087,7 +9112,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9096,7 +9121,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9105,7 +9130,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9114,7 +9139,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9123,7 +9148,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9132,7 +9157,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9141,7 +9166,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9150,7 +9175,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9159,7 +9184,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9168,7 +9193,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9177,7 +9202,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9186,7 +9211,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9195,7 +9220,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9204,7 +9229,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9213,7 +9238,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9222,7 +9247,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9231,7 +9256,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9240,7 +9265,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9249,7 +9274,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9258,7 +9283,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9267,7 +9292,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9276,7 +9301,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9285,7 +9310,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
